--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2537106.327512177</v>
+        <v>2641285.961963248</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9052686.222399447</v>
+        <v>9052686.222399449</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>113.6045826049846</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>297.4176400813334</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247809</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>85.12186634598228</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>196.028020151372</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>284.8164582521325</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>54.41653174045969</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>102.8228810500184</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,13 +1110,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>190.7999698769981</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>15.03347606442269</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>51.52044781341791</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1288,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>125.9386813819907</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>133.1918281323908</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703266</v>
+        <v>58.24570521548602</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>70.40964990483374</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>87.21471514852939</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>31.24750433886545</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>105.8460632289449</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>134.5665975534139</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2375,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2476,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>23.41986852521065</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>170.9457618790573</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>19.51567534720864</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444127</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695516</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703301</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238279</v>
+        <v>225.1478176131513</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3187,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>166.8892976061585</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444145</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>67.96386702300489</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>40.37234576591503</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3661,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>28.75188085812011</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>4.974488840438739</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3898,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>6.434538210426277</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>95.77623638693835</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3980,16 +3982,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206867</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.930370072262</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4031,19 +4033,19 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881288</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701351</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784692</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560482</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4135,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>89.67992556049109</v>
+        <v>85.71023095289436</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856568</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012183</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.11348746897</v>
+        <v>1758.295537883727</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1389.333020943315</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1031.067322336565</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>645.2790697383202</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>638.3335689891168</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>223.2611188341132</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4337,43 +4339,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>2866.097597267231</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176917</v>
+        <v>2535.03470992366</v>
       </c>
       <c r="W2" t="n">
-        <v>2377.852659508903</v>
+        <v>2535.03470992366</v>
       </c>
       <c r="X2" t="n">
-        <v>2377.852659508903</v>
+        <v>2535.03470992366</v>
       </c>
       <c r="Y2" t="n">
-        <v>1987.713327533092</v>
+        <v>2144.895377947848</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G3" t="n">
         <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
         <v>1685.951113992584</v>
@@ -4428,7 +4430,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125857</v>
@@ -4437,16 +4439,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4462,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>396.7094242895083</v>
+        <v>844.1713638478171</v>
       </c>
       <c r="C4" t="n">
-        <v>396.7094242895083</v>
+        <v>675.2351809199102</v>
       </c>
       <c r="D4" t="n">
-        <v>396.7094242895083</v>
+        <v>675.2351809199102</v>
       </c>
       <c r="E4" t="n">
-        <v>396.7094242895083</v>
+        <v>527.3220873375171</v>
       </c>
       <c r="F4" t="n">
-        <v>249.819476791598</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G4" t="n">
-        <v>249.819476791598</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1729.286446925491</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1729.286446925491</v>
       </c>
       <c r="V4" t="n">
-        <v>1134.908724368016</v>
+        <v>1474.601958719604</v>
       </c>
       <c r="W4" t="n">
-        <v>845.4915543310558</v>
+        <v>1474.601958719604</v>
       </c>
       <c r="X4" t="n">
-        <v>617.5020034330385</v>
+        <v>1246.612407821587</v>
       </c>
       <c r="Y4" t="n">
-        <v>396.7094242895083</v>
+        <v>1025.819828678057</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2232.598233480554</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C5" t="n">
-        <v>1863.635716540143</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520488</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520488</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>3009.337405520488</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2619.198073544676</v>
+        <v>1643.543434242328</v>
       </c>
     </row>
     <row r="6">
@@ -4638,28 +4640,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>339.3097953702099</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="C7" t="n">
-        <v>170.373612442303</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1513.842048484845</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1259.157560278958</v>
+        <v>942.1814820680183</v>
       </c>
       <c r="W7" t="n">
-        <v>969.7403902419971</v>
+        <v>942.1814820680183</v>
       </c>
       <c r="X7" t="n">
-        <v>741.7508393439798</v>
+        <v>714.191931170001</v>
       </c>
       <c r="Y7" t="n">
-        <v>520.9582602004497</v>
+        <v>493.3993520264709</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1917.382287315189</v>
+        <v>1605.601998493312</v>
       </c>
       <c r="C8" t="n">
-        <v>1548.419770374778</v>
+        <v>1605.601998493312</v>
       </c>
       <c r="D8" t="n">
-        <v>1190.154071768027</v>
+        <v>1247.336299886561</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3273.564965231981</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3067.587217616203</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3067.587217616203</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3067.587217616203</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W8" t="n">
-        <v>3067.587217616203</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X8" t="n">
-        <v>2694.121459355123</v>
+        <v>2382.341170533245</v>
       </c>
       <c r="Y8" t="n">
-        <v>2303.982127379311</v>
+        <v>1992.201838557433</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>912.2308571681123</v>
+        <v>441.1652223009119</v>
       </c>
       <c r="C10" t="n">
-        <v>743.2946742402054</v>
+        <v>313.9544330261738</v>
       </c>
       <c r="D10" t="n">
-        <v>593.1780348278696</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E10" t="n">
-        <v>445.2649412454765</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>298.3749937475661</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
         <v>163.8377936138381</v>
@@ -4957,7 +4959,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4999,13 +5001,13 @@
         <v>1361.01298720966</v>
       </c>
       <c r="W10" t="n">
-        <v>1361.01298720966</v>
+        <v>1071.595817172699</v>
       </c>
       <c r="X10" t="n">
-        <v>1133.023436311642</v>
+        <v>843.6062662746817</v>
       </c>
       <c r="Y10" t="n">
-        <v>912.2308571681123</v>
+        <v>622.8136871311516</v>
       </c>
     </row>
     <row r="11">
@@ -5030,34 +5032,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5115,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>506.2737913123336</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.652278938886</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.250242493492</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5267,7 +5269,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
@@ -5276,25 +5278,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5303,10 +5305,10 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5315,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,25 +5357,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708873</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5434,52 +5436,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1836.866460342034</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.395944601127</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168624</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>119.2902967703778</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>119.2902967703778</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>119.2902967703778</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969299</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>951.7772127656159</v>
       </c>
     </row>
     <row r="20">
@@ -5744,10 +5746,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5759,19 +5761,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.8431516380886</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C22" t="n">
-        <v>634.9279362553159</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5935,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683283</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="23">
@@ -5981,25 +5983,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6184,13 +6186,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2418.621364762389</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>2913.946970978148</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M27" t="n">
-        <v>3511.3254586047</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N27" t="n">
-        <v>4138.923422159307</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>4690.833152398593</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>4690.833152398593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.7825789706076</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8463960427007</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D28" t="n">
-        <v>241.729756630365</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797187</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6412,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1191.213173842395</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X28" t="n">
-        <v>963.2236229443774</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.4310438008473</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362676</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400744</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121676</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121676</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121676</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121676</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057736</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648822</v>
+        <v>1460.963815861624</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611861</v>
+        <v>1171.546645824663</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138439</v>
+        <v>1171.546645824663</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.502065570314</v>
+        <v>950.7540666811333</v>
       </c>
     </row>
     <row r="32">
@@ -6731,16 +6733,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,19 +6779,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>716.6687843969308</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
         <v>1896.176478190825</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>3576.042090127722</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>3576.042090127722</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>3355.249510984192</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362694</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6962,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>2231.58852738579</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2565.513299557011</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>3060.83890577277</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3658.217393399321</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>4285.815356953928</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4690.833152398593</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P36" t="n">
-        <v>4690.833152398593</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2532.719182723414</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.2946447138411</v>
+        <v>3192.420589669523</v>
       </c>
       <c r="C37" t="n">
-        <v>916.2946447138411</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="D37" t="n">
-        <v>766.1780053015053</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E37" t="n">
-        <v>618.2649117191122</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F37" t="n">
-        <v>471.3749642212018</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G37" t="n">
-        <v>304.1788649360818</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H37" t="n">
-        <v>162.4670337782798</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>3891.475775434741</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>3602.05860539778</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>3374.069054499763</v>
       </c>
       <c r="Y37" t="n">
-        <v>916.2946447138411</v>
+        <v>3374.069054499763</v>
       </c>
     </row>
     <row r="38">
@@ -7166,10 +7168,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7245,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2441.938347377797</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2259.083513032701</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2039.482048055643</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1750.40682139984</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1495.722333193953</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2716.927329289434</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>2716.927329289434</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M42" t="n">
-        <v>3314.305816915985</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N42" t="n">
-        <v>3941.903780470592</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>4267.210002903525</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>4690.833152398593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>637.9025067654818</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C43" t="n">
-        <v>637.9025067654818</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y43" t="n">
-        <v>819.5509715957215</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551879</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611467</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7667,31 +7669,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866616001</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>733.4550657171299</v>
+        <v>961.4446166151475</v>
       </c>
       <c r="C46" t="n">
-        <v>564.5188827892227</v>
+        <v>792.5084336872407</v>
       </c>
       <c r="D46" t="n">
-        <v>414.402243376887</v>
+        <v>642.3917942749049</v>
       </c>
       <c r="E46" t="n">
-        <v>266.4891497944939</v>
+        <v>494.4787006925118</v>
       </c>
       <c r="F46" t="n">
-        <v>266.4891497944939</v>
+        <v>347.5887531946014</v>
       </c>
       <c r="G46" t="n">
-        <v>266.4891497944939</v>
+        <v>180.3926539094813</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7846,10 +7848,10 @@
         <v>1363.885660588917</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473696</v>
+        <v>1143.093081445387</v>
       </c>
     </row>
   </sheetData>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194223</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23704,19 +23706,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>181.7279934189943</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>187.3371490132294</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>61.40075786968291</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>10.85445046951733</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>143.8269525734172</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>267.0073229893824</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392193862</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>26.98982571067674</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>119.6337007304325</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>13.30196929556064</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>211.765297557913</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25549,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>61.40075786968295</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>139.9994244361429</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>122.8084169651564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26032,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>50.61478728573294</v>
+        <v>54.58448189332952</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>779598.0929707644</v>
+        <v>779598.0929707646</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>779598.0929707645</v>
+        <v>779598.0929707646</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>779598.0929707644</v>
+        <v>779598.0929707646</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>779598.0929707645</v>
+        <v>779598.0929707644</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>779598.0929707644</v>
+        <v>779598.0929707645</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>779598.0929707644</v>
+        <v>779598.0929707645</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>779598.0929707645</v>
+        <v>779598.0929707644</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>779598.0929707644</v>
+        <v>779598.0929707645</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.415891427</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="F2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="J2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="G2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="I2" t="n">
-        <v>645717.2797520047</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="L2" t="n">
-        <v>645717.2797520049</v>
-      </c>
       <c r="M2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.279752005</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520051</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.518403942962574e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319403</v>
+        <v>92793.84288319395</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319403</v>
+        <v>92793.842883194</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319403</v>
+        <v>92793.84288319398</v>
       </c>
       <c r="E4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13606.80811184271</v>
+      </c>
+      <c r="H4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="F4" t="n">
-        <v>13606.8081118427</v>
-      </c>
-      <c r="G4" t="n">
-        <v>13606.80811184281</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13606.80811184279</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="M4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13606.80811184289</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13606.80811184279</v>
       </c>
       <c r="N4" t="n">
         <v>13606.80811184274</v>
@@ -26457,7 +26459,7 @@
         <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.8081118425</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-872639.1132807535</v>
+        <v>-872639.1132807538</v>
       </c>
       <c r="C6" t="n">
+        <v>456105.6324468395</v>
+      </c>
+      <c r="D6" t="n">
         <v>456105.6324468397</v>
       </c>
-      <c r="D6" t="n">
-        <v>456105.6324468394</v>
-      </c>
       <c r="E6" t="n">
-        <v>205575.4800088999</v>
+        <v>205575.4800088997</v>
       </c>
       <c r="F6" t="n">
         <v>530987.9418162552</v>
       </c>
       <c r="G6" t="n">
-        <v>530987.9418162551</v>
+        <v>530987.9418162552</v>
       </c>
       <c r="H6" t="n">
         <v>530987.9418162552</v>
       </c>
       <c r="I6" t="n">
-        <v>530987.9418162549</v>
+        <v>530987.9418162555</v>
       </c>
       <c r="J6" t="n">
-        <v>313456.7394189774</v>
+        <v>313456.7394189776</v>
       </c>
       <c r="K6" t="n">
-        <v>530987.9418162551</v>
+        <v>530987.9418162553</v>
       </c>
       <c r="L6" t="n">
         <v>530987.9418162552</v>
       </c>
       <c r="M6" t="n">
-        <v>445932.9138807431</v>
+        <v>445932.9138807434</v>
       </c>
       <c r="N6" t="n">
-        <v>530987.9418162551</v>
+        <v>530987.9418162552</v>
       </c>
       <c r="O6" t="n">
-        <v>530987.9418162551</v>
+        <v>530987.9418162555</v>
       </c>
       <c r="P6" t="n">
-        <v>530987.9418162551</v>
+        <v>530987.9418162553</v>
       </c>
     </row>
   </sheetData>
@@ -26713,7 +26715,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.117460312884351e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,7 +26804,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.117460312884351e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26969,10 +26971,10 @@
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.117460312884351e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27384,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>181.0031817823359</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>51.82332863607962</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>59.6331485683385</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>23.52092912479719</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>69.86658336855049</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>331.8214069155939</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>45.79259196819395</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,13 +27830,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>61.33767344682988</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>366.8968940078391</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>57.66731397475792</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28008,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>41.30813971663713</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>32.83398012663747</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28071,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31607,7 +31609,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233475</v>
@@ -31835,16 +31837,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>555.1777416630679</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,16 +31855,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>386.7287743289961</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>718.5832682008314</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>150.7833302198372</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32479,7 +32481,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159425</v>
@@ -32546,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
@@ -32558,7 +32560,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>467.7715423565662</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32569,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,19 +32788,19 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>375.1407109807906</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,7 +32809,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32944,7 +32946,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817575</v>
@@ -33020,31 +33022,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>175.6052721551099</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>638.0665277849414</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33260,7 +33262,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,19 +33271,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>556.7959610899863</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33497,13 +33499,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
@@ -33512,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>491.597732526532</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,10 +33733,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33749,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319844</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>166.2270851128133</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,7 +33976,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34205,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,22 +34216,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>309.7666854143577</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>471.1883883160942</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34366,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34445,13 +34447,13 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>399.1902208908131</v>
       </c>
       <c r="L45" t="n">
-        <v>339.3493584601592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34463,7 +34465,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35255,7 +35257,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013292</v>
@@ -35483,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>416.6233618831937</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,16 +35503,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>244.1325298845517</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>587.2415561174981</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>23.94570355317046</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36127,13 +36129,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36206,7 +36208,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>325.6375084345479</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36217,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36434,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>243.7989988974573</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,7 +36457,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36668,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075094</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>506.7248157016081</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,19 +36919,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>425.454249006653</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>477.9853321427316</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37160,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37397,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875399</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>171.2123056344834</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>328.5921438716498</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38093,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="L45" t="n">
-        <v>200.7949786802851</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38111,7 +38113,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2641285.961963248</v>
+        <v>2637273.351949255</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9052686.222399449</v>
+        <v>9052686.222399447</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>79.76470074482832</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>113.6045826049846</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247809</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>13.33835225137436</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>196.028020151372</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -901,13 +901,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>208.7099749169686</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>54.41653174045969</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>114.265617377101</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>190.7999698769981</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1138,13 +1138,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>15.03347606442269</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>99.59933623926837</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1192,10 +1192,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>125.9386813819907</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>84.66722040511718</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576179</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>58.24570521548602</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428209</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187885</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>23.62554568141315</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -1818,13 +1818,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>70.40964990483374</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187875</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.24750433886545</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>134.5665975534139</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>23.41986852521065</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186444</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>19.51567534720864</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206848</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790575</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>225.1478176131513</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>166.8892976061585</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444145</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>40.37234576591503</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.974488840438739</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,13 +3906,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>6.434538210426277</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282041</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>85.71023095289436</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1758.295537883727</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C2" t="n">
-        <v>1389.333020943315</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="D2" t="n">
-        <v>1031.067322336565</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>645.2790697383202</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>638.3335689891168</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>223.2611188341132</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993395</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267231</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.03470992366</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2535.03470992366</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2535.03470992366</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2144.895377947848</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811093</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999823</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.156415538731</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332755</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601605</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>936.5735814686075</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064616</v>
+        <v>846.0716871064749</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>827.0643955080128</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>920.7416649986301</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>844.1713638478171</v>
+        <v>1007.761086342349</v>
       </c>
       <c r="C4" t="n">
-        <v>675.2351809199102</v>
+        <v>838.8249034144422</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199102</v>
+        <v>688.7082640021065</v>
       </c>
       <c r="E4" t="n">
-        <v>527.3220873375171</v>
+        <v>540.7951704197134</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396067</v>
+        <v>393.905222921803</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>226.202386296522</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218345</v>
+        <v>79.98519951437973</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4518,22 +4518,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1729.286446925491</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1729.286446925491</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V4" t="n">
-        <v>1474.601958719604</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W4" t="n">
-        <v>1474.601958719604</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="X4" t="n">
-        <v>1246.612407821587</v>
+        <v>1410.202130316119</v>
       </c>
       <c r="Y4" t="n">
-        <v>1025.819828678057</v>
+        <v>1189.409551172589</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1643.543434242328</v>
+        <v>1514.348043559524</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>1145.385526619112</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
         <v>523.5814653477182</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2277.953133796415</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y5" t="n">
-        <v>1643.543434242328</v>
+        <v>1514.348043559524</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4661,13 +4661,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>311.7508871962312</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>311.7508871962312</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>311.7508871962312</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="V7" t="n">
-        <v>942.1814820680183</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="W7" t="n">
-        <v>942.1814820680183</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X7" t="n">
-        <v>714.191931170001</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>493.3993520264709</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1605.601998493312</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C8" t="n">
-        <v>1605.601998493312</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="D8" t="n">
-        <v>1247.336299886561</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2755.806928794325</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2382.341170533245</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1992.201838557433</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>441.1652223009119</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="C10" t="n">
-        <v>313.9544330261738</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8377936138381</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1841.772103234839</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1620.005487804365</v>
       </c>
       <c r="U10" t="n">
-        <v>1615.697475415547</v>
+        <v>1620.005487804365</v>
       </c>
       <c r="V10" t="n">
-        <v>1361.01298720966</v>
+        <v>1620.005487804365</v>
       </c>
       <c r="W10" t="n">
-        <v>1071.595817172699</v>
+        <v>1330.588317767405</v>
       </c>
       <c r="X10" t="n">
-        <v>843.6062662746817</v>
+        <v>1102.598766869387</v>
       </c>
       <c r="Y10" t="n">
-        <v>622.8136871311516</v>
+        <v>881.8061877258572</v>
       </c>
     </row>
     <row r="11">
@@ -5032,22 +5032,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5059,16 +5059,16 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1654.485273605118</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>376.4492432300683</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>376.4492432300683</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>376.4492432300683</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5254,55 +5254,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192606</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
         <v>4606.28515749258</v>
@@ -5311,19 +5311,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.866460342034</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1547.449290305074</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1319.459739407056</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004714</v>
@@ -5503,22 +5503,22 @@
         <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168624</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5527,10 +5527,10 @@
         <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694709</v>
@@ -5539,28 +5539,28 @@
         <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J18" t="n">
-        <v>119.2902967703778</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>119.2902967703778</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703778</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969299</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.7772127656159</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>782.841029837709</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5682,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5691,7 +5691,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
@@ -5700,25 +5700,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235166</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258107</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602305</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396418</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359457</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614396</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>951.7772127656159</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192633</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L21" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.7084350851671</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>527.7722521572603</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>377.6556127449245</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>229.7425191625314</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154069</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192512</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.2707707770319</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.9192356072716</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6244,16 +6244,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>783.5579673960132</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>614.6217844681063</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D28" t="n">
-        <v>464.5051450557705</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W28" t="n">
-        <v>1413.9885622678</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X28" t="n">
-        <v>1185.999011369783</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y28" t="n">
-        <v>965.2064322262529</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6481,34 +6481,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>923.0670414349511</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>950.7540666811333</v>
+        <v>560.7825789706077</v>
       </c>
       <c r="C31" t="n">
-        <v>781.8178837532264</v>
+        <v>391.8463960427008</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408906</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085243</v>
       </c>
       <c r="V31" t="n">
-        <v>1460.963815861624</v>
+        <v>1480.630343879356</v>
       </c>
       <c r="W31" t="n">
-        <v>1171.546645824663</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X31" t="n">
-        <v>1171.546645824663</v>
+        <v>963.2236229443776</v>
       </c>
       <c r="Y31" t="n">
-        <v>950.7540666811333</v>
+        <v>742.4310438008474</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>923.0670414349511</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1550.665004989558</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3173.601046153952</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>3576.042090127722</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>3576.042090127722</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>3355.249510984192</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362694</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6955,16 +6955,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474785</v>
@@ -6982,7 +6982,7 @@
         <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2532.719182723414</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3192.420589669523</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>3891.475775434741</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>3602.05860539778</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>3374.069054499763</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>3374.069054499763</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7253,19 +7253,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2441.938347377797</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2259.083513032701</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2039.482048055643</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1750.40682139984</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1495.722333193953</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1206.305163156993</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7496,22 +7496,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>746.8882603249857</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>733.4550657171301</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>564.5188827892232</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>414.4022433768874</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588917</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.8961096909</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>915.1035305473698</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7730,25 +7730,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>352.5519571452614</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>961.4446166151475</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>792.5084336872407</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>642.3917942749049</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>494.4787006925118</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>347.5887531946014</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>180.3926539094813</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1363.885660588917</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1143.093081445387</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>107.2784330767828</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>122.808416965156</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>181.7279934189943</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>187.3371490132294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>10.85445046951733</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>143.8269525734172</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>32.89260457059976</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>267.0073229893824</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,19 +24891,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>46.45968844823076</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>26.98982571067674</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>119.6337007304325</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>211.765297557913</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>61.40075786968295</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>139.9994244361429</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>125.5054897610401</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>54.58448189332952</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>779598.0929707646</v>
+        <v>779598.0929707644</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>779598.0929707646</v>
+        <v>779598.0929707644</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>779598.0929707646</v>
+        <v>779598.0929707645</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>779598.0929707644</v>
+        <v>779598.0929707645</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>779598.0929707645</v>
+        <v>779598.0929707644</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>779598.0929707645</v>
+        <v>779598.0929707646</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>779598.0929707645</v>
+        <v>779598.0929707644</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>779598.0929707645</v>
+        <v>779598.0929707644</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>779598.0929707645</v>
+        <v>779598.0929707644</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>779598.0929707645</v>
+        <v>779598.0929707644</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>779598.0929707645</v>
+        <v>779598.0929707644</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="C2" t="n">
+        <v>656833.4158914264</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914265</v>
       </c>
-      <c r="D2" t="n">
-        <v>656833.415891427</v>
-      </c>
       <c r="E2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="F2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="H2" t="n">
         <v>645717.2797520052</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>645717.2797520051</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645717.2797520047</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645717.2797520052</v>
       </c>
       <c r="J2" t="n">
         <v>645717.279752005</v>
@@ -26343,19 +26343,19 @@
         <v>645717.2797520051</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="O2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="P2" t="n">
         <v>645717.2797520052</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.2797520051</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5.307101673679426e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.518403942962574e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551199</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,43 +26417,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319395</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.842883194</v>
+        <v>92793.84288319416</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319398</v>
+        <v>92793.84288319403</v>
       </c>
       <c r="E4" t="n">
+        <v>13606.80811184266</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13606.80811184266</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13606.80811184269</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13606.80811184269</v>
+      </c>
+      <c r="I4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="F4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="G4" t="n">
-        <v>13606.80811184271</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13606.80811184274</v>
-      </c>
       <c r="J4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184269</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184266</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184274</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-872639.1132807538</v>
+        <v>-872639.1132807536</v>
       </c>
       <c r="C6" t="n">
         <v>456105.6324468395</v>
       </c>
       <c r="D6" t="n">
-        <v>456105.6324468397</v>
+        <v>456105.6324468387</v>
       </c>
       <c r="E6" t="n">
-        <v>205575.4800088997</v>
+        <v>205228.1007545427</v>
       </c>
       <c r="F6" t="n">
-        <v>530987.9418162552</v>
+        <v>530640.5625618983</v>
       </c>
       <c r="G6" t="n">
-        <v>530987.9418162552</v>
+        <v>530640.5625618981</v>
       </c>
       <c r="H6" t="n">
-        <v>530987.9418162552</v>
+        <v>530640.5625618984</v>
       </c>
       <c r="I6" t="n">
-        <v>530987.9418162555</v>
+        <v>530640.5625618983</v>
       </c>
       <c r="J6" t="n">
-        <v>313456.7394189776</v>
+        <v>313109.3601646209</v>
       </c>
       <c r="K6" t="n">
-        <v>530987.9418162553</v>
+        <v>530640.5625618983</v>
       </c>
       <c r="L6" t="n">
-        <v>530987.9418162552</v>
+        <v>530640.5625618984</v>
       </c>
       <c r="M6" t="n">
-        <v>445932.9138807434</v>
+        <v>445585.5346263863</v>
       </c>
       <c r="N6" t="n">
-        <v>530987.9418162552</v>
+        <v>530640.5625618985</v>
       </c>
       <c r="O6" t="n">
-        <v>530987.9418162555</v>
+        <v>530640.5625618981</v>
       </c>
       <c r="P6" t="n">
-        <v>530987.9418162553</v>
+        <v>530640.5625618985</v>
       </c>
     </row>
   </sheetData>
@@ -26715,7 +26715,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.117460312884351e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26807,22 +26807,22 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.117460312884351e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.117460312884351e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>274.9183408758547</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>181.0031817823359</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>83.01406815846373</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>23.52092912479719</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27621,13 +27621,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>145.9730667037144</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>331.8214069155939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27824,16 +27824,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>75.50340795434097</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>61.33767344682988</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27858,13 +27858,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>366.8968940078391</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>307.2767095024431</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27912,10 +27912,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>41.30813971663713</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>105.1018049263247</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.456321560868265e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.513164979729073e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-8.878873722601852e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31609,7 +31609,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233475</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>386.7287743289961</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,13 +32074,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
@@ -32089,16 +32089,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>718.5832682008314</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,34 +32314,34 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>150.7833302198372</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067235</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>467.7715423565662</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>375.1407109807906</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32946,34 +32946,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>638.0665277849414</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>556.7959610899863</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>491.597732526532</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>166.2270851128133</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33894,34 +33894,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>309.7666854143577</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,37 +34450,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>399.1902208908131</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013292</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>244.1325298845517</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
@@ -35737,16 +35737,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>587.2415561174981</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>23.94570355317046</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36053,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317594</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>325.6375084345479</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>243.7989988974573</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>506.7248157016081</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>425.454249006653</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>349.0014880820875</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>171.2123056344834</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2637273.351949255</v>
+        <v>2639033.882252041</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>94.81275980261665</v>
       </c>
       <c r="D2" t="n">
-        <v>79.76470074482832</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>13.33835225137436</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>114.2656173771025</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>208.7099749169686</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>23.34416082770972</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>114.265617377101</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>75.41231307284865</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>92.72329049755683</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>99.59933623926837</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>84.66722040511718</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576179</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428209</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187885</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>23.62554568141315</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2724,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>253.2918698186444</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>133.4811715458538</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206848</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,19 +2952,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>170.9457618790575</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>160.6789846282041</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1698.509627919559</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="C2" t="n">
-        <v>1698.509627919559</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.509627919559</v>
+        <v>2071.975386180641</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064749</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080128</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986301</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1007.761086342349</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>838.8249034144422</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>688.7082640021065</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>540.7951704197134</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>393.905222921803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>226.202386296522</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>79.98519951437973</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214136</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="V4" t="n">
-        <v>1638.191681214136</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="W4" t="n">
-        <v>1638.191681214136</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>1410.202130316119</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>1189.409551172589</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1514.348043559524</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C5" t="n">
-        <v>1145.385526619112</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D5" t="n">
         <v>934.5673701373257</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136264</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.7846764101</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.72178906653</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796415</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535336</v>
+        <v>2048.39542574861</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.348043559524</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228006</v>
@@ -4652,7 +4652,7 @@
         <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4661,13 +4661,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1722.044275313594</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1722.044275313594</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1722.044275313594</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1722.044275313594</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W7" t="n">
-        <v>1722.044275313594</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="8">
@@ -4783,16 +4783,16 @@
         <v>921.7704558796261</v>
       </c>
       <c r="C8" t="n">
-        <v>921.7704558796261</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="D8" t="n">
-        <v>921.7704558796261</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="E8" t="n">
-        <v>921.7704558796261</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4807,10 +4807,10 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4874,16 +4874,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>700.1577228956174</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>531.2215399677106</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>381.1049005553748</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
         <v>381.1049005553748</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1841.772103234839</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1620.005487804365</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1620.005487804365</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1620.005487804365</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1330.588317767405</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1102.598766869387</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>881.8061877258572</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5032,43 +5032,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192606</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803938</v>
@@ -5415,25 +5415,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400717</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400717</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851784</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192633</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111719</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468472</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
         <v>1072.713683962606</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192512</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468472</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
         <v>1072.713683962606</v>
@@ -6141,46 +6141,46 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
         <v>1491.508541327549</v>
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6244,16 +6244,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>2191.112710026075</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1936.428221820188</v>
+        <v>1620.602091394371</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1331.18492135741</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>1103.195370459393</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>882.4027913158625</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468472</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
         <v>1072.713683962606</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.7825789706077</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>391.8463960427008</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D31" t="n">
-        <v>241.729756630365</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797191</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797191</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1735.314832085243</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1480.630343879356</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>963.2236229443776</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>742.4310438008474</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6955,31 +6955,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7569,37 +7569,37 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
         <v>1882.204779583153</v>
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7736,7 +7736,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7785,16 +7785,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7806,46 +7806,46 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
         <v>974.1018203925706</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>122.808416965156</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>32.89260457059976</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>118.6564717779742</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>46.45968844823076</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>125.5054897610401</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>779598.0929707644</v>
+        <v>779598.0929707645</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>779598.0929707644</v>
+        <v>779598.0929707645</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>779598.0929707645</v>
+        <v>779598.0929707644</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>779598.0929707645</v>
+        <v>779598.0929707644</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>779598.0929707646</v>
+        <v>779598.0929707645</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>779598.0929707644</v>
+        <v>779598.0929707645</v>
       </c>
     </row>
     <row r="13">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
         <v>645717.2797520049</v>
@@ -26328,34 +26328,34 @@
         <v>645717.279752005</v>
       </c>
       <c r="G2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="H2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="H2" t="n">
-        <v>645717.2797520052</v>
-      </c>
       <c r="I2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520045</v>
       </c>
       <c r="K2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.279752005</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="O2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="P2" t="n">
         <v>645717.2797520049</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.2797520052</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.307101673679426e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,43 +26417,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319395</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319416</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="D4" t="n">
         <v>92793.84288319403</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184266</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184266</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184269</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184269</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184269</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184266</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184274</v>
@@ -26524,46 +26524,46 @@
         <v>-872639.1132807536</v>
       </c>
       <c r="C6" t="n">
-        <v>456105.6324468395</v>
+        <v>456105.6324468396</v>
       </c>
       <c r="D6" t="n">
-        <v>456105.6324468387</v>
+        <v>456105.6324468394</v>
       </c>
       <c r="E6" t="n">
-        <v>205228.1007545427</v>
+        <v>205540.7420834642</v>
       </c>
       <c r="F6" t="n">
-        <v>530640.5625618983</v>
+        <v>530953.2038908193</v>
       </c>
       <c r="G6" t="n">
-        <v>530640.5625618981</v>
+        <v>530953.2038908195</v>
       </c>
       <c r="H6" t="n">
-        <v>530640.5625618984</v>
+        <v>530953.2038908196</v>
       </c>
       <c r="I6" t="n">
-        <v>530640.5625618983</v>
+        <v>530953.2038908195</v>
       </c>
       <c r="J6" t="n">
-        <v>313109.3601646209</v>
+        <v>313422.0014935414</v>
       </c>
       <c r="K6" t="n">
-        <v>530640.5625618983</v>
+        <v>530953.2038908197</v>
       </c>
       <c r="L6" t="n">
-        <v>530640.5625618984</v>
+        <v>530953.2038908193</v>
       </c>
       <c r="M6" t="n">
-        <v>445585.5346263863</v>
+        <v>445898.1759553077</v>
       </c>
       <c r="N6" t="n">
-        <v>530640.5625618985</v>
+        <v>530953.2038908195</v>
       </c>
       <c r="O6" t="n">
-        <v>530640.5625618981</v>
+        <v>530953.2038908196</v>
       </c>
       <c r="P6" t="n">
-        <v>530640.5625618985</v>
+        <v>530953.2038908195</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,40 +26789,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>270.4601319683909</v>
       </c>
       <c r="D2" t="n">
-        <v>274.9183408758547</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>83.01406815846373</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>75.50340795433937</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>145.9730667037144</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>346.3869398507593</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27824,10 +27824,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>75.50340795434097</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>150.2973423161885</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>272.5496012734507</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,10 +27864,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>307.2767095024431</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28061,16 +28061,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>105.1018049263247</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-1.456321560868265e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.513164979729073e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-8.878873722601852e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>398.7616643558013</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067235</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>400.5469039565762</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>400.5469039565762</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>400.5469039565762</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>400.5469039565762</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>400.5469039565762</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>400.5469039565762</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>400.5469039565762</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>363.5371514786841</v>
@@ -34237,13 +34237,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34456,31 +34456,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,13 +35494,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>256.1654199113569</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317594</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>257.9506595121318</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>257.9506595121318</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>257.9506595121318</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>257.9506595121318</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>257.9506595121318</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>257.9506595121318</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>257.9506595121318</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>220.9409070342396</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
